--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -438,7 +438,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -446,23 +446,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -470,10 +471,10 @@
   <cols>
     <col min="1" max="1" width="15.78125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.1328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2299,273 +2300,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED131C1-DEEF-44C0-B922-62C435A96593}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF4313FA-E44A-4F71-A816-0E299811D491}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056B5DBB-25EA-420E-BE6D-5C7F0B81D083}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -326,6 +332,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -390,6 +399,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -463,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -475,6 +487,7 @@
     <col min="4" max="4" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,45 +509,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -556,1745 +578,2009 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato necroscopico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nulla osta</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato necroscopico</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nulla osta</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -579,2008 +582,2008 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -335,7 +335,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -404,7 +404,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -490,7 +490,7 @@
     <col min="4" max="4" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1329,7 +1335,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>65</v>
@@ -1421,7 +1427,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -1530,283 +1536,283 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>116</v>
@@ -1815,21 +1821,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>117</v>
@@ -1838,21 +1844,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>118</v>
@@ -1861,21 +1867,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>119</v>
@@ -1884,21 +1890,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>120</v>
@@ -1907,21 +1913,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>121</v>
@@ -1930,21 +1936,21 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>122</v>
@@ -1953,21 +1959,21 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>123</v>
@@ -1976,205 +1982,205 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>110</v>
@@ -2183,21 +2189,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -2206,21 +2212,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>112</v>
@@ -2229,21 +2235,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>113</v>
@@ -2252,21 +2258,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>114</v>
@@ -2275,21 +2281,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>115</v>
@@ -2298,246 +2304,246 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
@@ -2545,22 +2551,22 @@
         <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -2568,21 +2574,90 @@
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,6 +426,105 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -484,17 +583,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2661,6 +2760,351 @@
         <v>18</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -333,6 +333,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -583,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1658,1226 +1682,1226 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>151</v>
@@ -2886,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>152</v>
@@ -2895,12 +2919,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>153</v>
@@ -2909,136 +2933,136 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>164</v>
@@ -3047,61 +3071,153 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -227,6 +227,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -386,10 +392,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -607,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1274,7 +1277,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>65</v>
@@ -1366,7 +1369,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>65</v>
@@ -1481,7 +1484,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>65</v>
@@ -1573,7 +1576,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>65</v>
@@ -1774,145 +1777,145 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>120</v>
@@ -1921,21 +1924,21 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>121</v>
@@ -1944,21 +1947,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>122</v>
@@ -1967,21 +1970,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
@@ -1990,573 +1993,573 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>124</v>
@@ -2565,21 +2568,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>125</v>
@@ -2588,636 +2591,705 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1553,7 +1559,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -1576,7 +1582,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>65</v>
@@ -1800,375 +1806,375 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>129</v>
@@ -2177,21 +2183,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>130</v>
@@ -2200,21 +2206,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>131</v>
@@ -2223,21 +2229,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>132</v>
@@ -2246,21 +2252,21 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>133</v>
@@ -2269,21 +2275,21 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>134</v>
@@ -2292,228 +2298,228 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>122</v>
@@ -2522,21 +2528,21 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>123</v>
@@ -2545,21 +2551,21 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>124</v>
@@ -2568,21 +2574,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>125</v>
@@ -2591,113 +2597,113 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>128</v>
@@ -2706,200 +2712,200 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
@@ -2907,22 +2913,22 @@
         <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2930,366 +2936,435 @@
         <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -616,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2154,7 +2160,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2163,7 +2169,7 @@
         <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2177,7 +2183,7 @@
         <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2186,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2200,7 +2206,7 @@
         <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2209,7 +2215,7 @@
         <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2223,7 +2229,7 @@
         <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2232,7 +2238,7 @@
         <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2246,7 +2252,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2255,7 +2261,7 @@
         <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2269,7 +2275,7 @@
         <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2278,7 +2284,7 @@
         <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2292,7 +2298,7 @@
         <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2301,7 +2307,7 @@
         <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2315,7 +2321,7 @@
         <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2324,7 +2330,7 @@
         <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2338,7 +2344,7 @@
         <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2347,7 +2353,7 @@
         <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2404,11 +2410,11 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
@@ -2416,67 +2422,67 @@
         <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2485,21 +2491,21 @@
         <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2508,21 +2514,21 @@
         <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2531,21 +2537,21 @@
         <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2554,21 +2560,21 @@
         <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2577,21 +2583,21 @@
         <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2600,21 +2606,21 @@
         <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2623,21 +2629,21 @@
         <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2646,21 +2652,21 @@
         <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2669,21 +2675,21 @@
         <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2692,21 +2698,21 @@
         <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2715,21 +2721,21 @@
         <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2738,18 +2744,18 @@
         <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>129</v>
@@ -2761,21 +2767,21 @@
         <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2784,18 +2790,18 @@
         <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>131</v>
@@ -2807,18 +2813,18 @@
         <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>132</v>
@@ -2830,18 +2836,18 @@
         <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>133</v>
@@ -2853,18 +2859,18 @@
         <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>134</v>
@@ -2876,18 +2882,18 @@
         <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>135</v>
@@ -2899,18 +2905,18 @@
         <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>136</v>
@@ -2922,21 +2928,21 @@
         <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2945,21 +2951,21 @@
         <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2968,13 +2974,13 @@
         <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
@@ -2982,22 +2988,22 @@
         <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -3005,366 +3011,412 @@
         <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -622,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3353,39 +3359,39 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>181</v>
@@ -3399,7 +3405,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>182</v>
@@ -3408,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>183</v>
@@ -3417,6 +3423,29 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -1870,7 +1870,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>120</v>
@@ -2468,7 +2468,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>120</v>

--- a/docs/Mapping_casi_uso/morte/Morte_003.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -628,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1341,7 +1353,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -1364,7 +1376,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>65</v>
@@ -1410,7 +1422,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -1433,7 +1445,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>65</v>
@@ -1525,7 +1537,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>65</v>
@@ -1548,7 +1560,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>65</v>
@@ -1571,7 +1583,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -1594,7 +1606,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>65</v>
@@ -1841,214 +1853,214 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>126</v>
@@ -2057,21 +2069,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>127</v>
@@ -2080,159 +2092,159 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>132</v>
@@ -2241,21 +2253,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>133</v>
@@ -2264,44 +2276,44 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>135</v>
@@ -2310,21 +2322,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>136</v>
@@ -2333,21 +2345,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>137</v>
@@ -2356,21 +2368,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>138</v>
@@ -2379,366 +2391,366 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>128</v>
@@ -2747,21 +2759,21 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>129</v>
@@ -2770,44 +2782,44 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>131</v>
@@ -2816,636 +2828,774 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>18</v>
       </c>
     </row>
